--- a/medicine/Enfance/Éphémère_(auteur-illustrateur)/Éphémère_(auteur-illustrateur).xlsx
+++ b/medicine/Enfance/Éphémère_(auteur-illustrateur)/Éphémère_(auteur-illustrateur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ph%C3%A9m%C3%A8re_(auteur-illustrateur)</t>
+          <t>Éphémère_(auteur-illustrateur)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éphémère (ou François Larzem), né le 4 novembre 1958, est un auteur-illustrateur de livres pour la jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ph%C3%A9m%C3%A8re_(auteur-illustrateur)</t>
+          <t>Éphémère_(auteur-illustrateur)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né sur une île, non loin du Serengeti, au fin fond de la Sibérie Orientale, ou encore aux portes du Mont Saint-Michel, suivant ses diverses biographies, Éphémère est auteur-illustrateur de livres pour la jeunesse.
 Il a notamment écrit et illustré Téo Croklune, Le sculpteur de nuages et Pluie d’été aux Éditions Magnard Jeunesse.
 Son roman Mon copain dragon, publié aux Éditions Rageot en 2010, a obtenu plusieurs prix : le Prix Benjamin 2011, le Prix Croqu’livres 2011 et le Prix Jeunesse Saint-Maur en Poche 2011.
 En 2013, il écrit La griffe et le sang, roman Young Adult paru aux éditions Le Pré aux Clercs, sous le nom de François Larzem (pseudonyme dévoilé en 4e de couverture).
-Il est membre de la Charte des auteurs et des illustrateurs jeunesse[1].
+Il est membre de la Charte des auteurs et des illustrateurs jeunesse.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ph%C3%A9m%C3%A8re_(auteur-illustrateur)</t>
+          <t>Éphémère_(auteur-illustrateur)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Éditions Le Pré aux Clercs
 La griffe et le sang, 2013,  (ISBN 978-2-84228-508-1).
